--- a/Hometask2/FlippyKnife_CheckList.xlsx
+++ b/Hometask2/FlippyKnife_CheckList.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="120">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -128,7 +128,7 @@
     <t xml:space="preserve">Завершение туториала</t>
   </si>
   <si>
-    <t xml:space="preserve">Передача игроку управления</t>
+    <t xml:space="preserve">После пункта 1.3.4 и 1.3.5 завершение туториала и передача управления игроку</t>
   </si>
   <si>
     <t xml:space="preserve">1.4</t>
@@ -149,7 +149,202 @@
     <t xml:space="preserve">2.1</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2</t>
+    <t xml:space="preserve">2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мод «Пень»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Открывается при запуске игры. Выбирается через меню «Моды» нажатием на кнопку «Играть»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Действие бросок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Свайп по экрану сопровождается рисунком траектории. Анимация комбо-поворотов присутствует. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3.2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Действие втык</t>
+  </si>
+  <si>
+    <t xml:space="preserve">После броска нож втыкается в пень. Может не втыкаться в пень. Может выпасть за пень. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3.3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Реклама</t>
+  </si>
+  <si>
+    <t xml:space="preserve">При нажатии на «Динамит» анимация взрыва с сопровождающимся характерным звуком. Открывается окно с рекламой. Появляется желтая шкала комбо-бросков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">failed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Окно с рекламой не появляется</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мод «Бум!»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Открывается при выборе мода через меню и нажатии на кнопку «Играть». Или при клике на картинку мода. Сопровождается фоновой музыкой.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Интерфейс мода «Бум»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шкала количества возможных бросков отображается. Уровень мода показан в левом углу экрана. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Завершение игры</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Открывается окно с уровнями. Можно забрать награду,  как есть. Можно забрать награду в х5 размере за просмотр рекламы.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4.3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Броски закончились</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Окно с предложением посмотреть рекламу за 3 броска отображается. Кнопки «да» , «нет»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Магазин ножей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Можно купить, контент выдается после покупки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIP клуб</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Открывается окно с описанием Вип Клуба. Условия сделки в виде кнопок, открывающих способы оплаты. Закрывается нажатием на крестик. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пак с ножами «Все ножи»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">При клике на пак «Все ножи» открывается окно способы оплаты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Паки с ножами</t>
+  </si>
+  <si>
+    <t xml:space="preserve">При клике на любой из паков с ножами открывается окно способов оплаты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Большой пак с монетами</t>
+  </si>
+  <si>
+    <t xml:space="preserve">При клике на большой пак с монетами открывается окно способов оплаты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Средний пак с монетами</t>
+  </si>
+  <si>
+    <t xml:space="preserve">При клике на средний пак с монетами открывается окно способов оплаты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Малый пак с монетами</t>
+  </si>
+  <si>
+    <t xml:space="preserve">При клике на малый пак открыватся окно способ оплаты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Игрок может посмотреть рекламу и получить награду</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Точка рекламы в моде «Пень»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">При клике на точку реклама начинается</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Точка рекламы в моде «Бум»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Награды за видео</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- за броски в моде "Бум!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Броски закончились, выплывает окно с предложением посмотреть рекламу за три доп.броска</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- за нож</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В меню «Ножи» за просмотр рекламы дают нож. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3.3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- за сундук</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Открывается окно с сундуком с наполнением 150 монет. Можно удвоить монеты просмотром рекламы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Interstitial реклама</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Появилась короткая реклама после 13 кликов по экрану. Закрывается спустя 5 секунд.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Баннер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Реклама в самом низу экрана. При нажатии открывается окно с приложением.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
   </si>
   <si>
     <t xml:space="preserve">Ежедневный подарок</t>
@@ -158,202 +353,55 @@
     <t xml:space="preserve">Открылось окно с ежедневным подарком. Ячейка с подарком мигает. Кнопка получить активна. Анимация подарка, кнопка «Забрать». Сопровождается фоновой музыкой.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мод «Пень»</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Открывается при запуске игры. Выбирается через меню «Моды» нажатием на кнопку «Играть»</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Действие бросок</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Свайп по экрану сопровождается рисунком траектории. Анимация комбо-поворотов присутствует. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3.2.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Действие втык</t>
-  </si>
-  <si>
-    <t xml:space="preserve">После броска нож втыкается в пень. Может не втыкаться в пень. Может выпасть за пень. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3.3.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Реклама</t>
-  </si>
-  <si>
-    <t xml:space="preserve">При нажатии на «Динамит» анимация взрыва с сопровождающимся характерным звуком. Открывается окно с рекламой. Появляется желтая шкала комбо-бросков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">failed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Окно с рекламой не появляется</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мод «Бум!»</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Открывается при выборе мода через меню и нажатии на кнопку «Играть». Или при клике на картинку мода. Сопровождается фоновой музыкой.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Интерфейс мода «Бум»</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шкала количества возможных бросков отображается. Уровень мода показан в левом углу экрана. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Завершение игры</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Открывается окно с уровнями. Можно забрать награду,  как есть. Можно забрать награду в х5 размере за просмотр рекламы.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4.3.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Броски закончились</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Окно с предложением посмотреть рекламу за 3 броска отображается. Кнопки «да» , «нет»</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Магазин ножей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIP клуб</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Открывается окно с описанием Вип Клуба. Условия сделки в виде кнопок, открывающих способы оплаты. Закрывается нажатием на крестик. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пак с ножами «Все ножи»</t>
-  </si>
-  <si>
-    <t xml:space="preserve">При клике на пак «Все ножи» открывается окно способы оплаты</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Паки с ножами</t>
-  </si>
-  <si>
-    <t xml:space="preserve">При клике на любой из паков с ножами открывается окно способов оплаты</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Большой пак с монетами</t>
-  </si>
-  <si>
-    <t xml:space="preserve">При клике на большой пак с монетами открывается окно способов оплаты</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Средний пак с монетами</t>
-  </si>
-  <si>
-    <t xml:space="preserve">При клике на средний пак с монетами открывается окно способов оплаты</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Малый пак с монетами</t>
-  </si>
-  <si>
-    <t xml:space="preserve">При клике на малый пак открыватся окно способ оплаты</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Точка рекламы в моде «Пень»</t>
-  </si>
-  <si>
-    <t xml:space="preserve">При клике на точку реклама начинается</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Точка рекламы в моде «Бум»</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Награды за видео</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- за броски в моде "Бум!"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Броски закончились, выплывает окно с предложением посмотреть рекламу за три доп.броска</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- за нож</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В меню «Ножи» за просмотр рекламы дают нож. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3.3.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- за сундук</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Открывается окно с сундуком с наполнением 150 монет. Можно удвоить монеты просмотром рекламы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Interstitial реклама</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Появилась короткая реклама после 13 кликов по экрану. Закрывается спустя 5 секунд.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Баннер</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Реклама в самом низу экрана. При нажатии открывается окно с приложением.</t>
+    <t xml:space="preserve">5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Игрок попадает на экран Ежедневного подарка раз в 24 часа</t>
   </si>
   <si>
     <t xml:space="preserve">Баг репорт</t>
   </si>
   <si>
-    <t xml:space="preserve">Название: Точка рекламы для мода «Пень» не показывает рекламу при нажатии на нее.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Окружение: ios, android</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Название:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Точка рекламы для мода «Пень» не показывает рекламу при нажатии на нее.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Окружение:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> ios, android</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Шаги воспроизведения: </t>
@@ -365,10 +413,28 @@
     <t xml:space="preserve">2. Нажать на красную коробку</t>
   </si>
   <si>
-    <t xml:space="preserve">Ожидаемый результат: начинается просмотр рекламы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фактический результат: просмотр рекламы не начинается</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Ожидаемый результат:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> начинается просмотр рекламы</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Фактический результат: Rewarded video не запускается, по нажатию на точку рекламы и вокруг неё ничего не происходит, логи вот (ссылка на лог или файл в формате txt), ни с wifi, и с мобильного интернета, перезагрузка игры не помогает</t>
   </si>
 </sst>
 </file>
@@ -413,6 +479,13 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -429,13 +502,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FFC9211E"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -506,11 +572,11 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -523,27 +589,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -559,7 +629,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -572,7 +646,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Error 1" xfId="20"/>
-    <cellStyle name="Warning" xfId="21"/>
+    <cellStyle name="Warning 1" xfId="21"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -642,21 +716,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E35" activeCellId="0" sqref="E35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="28.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="37.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="18.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="19.91"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="24.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="24.41"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="2" width="11.52"/>
   </cols>
   <sheetData>
@@ -894,7 +968,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -945,7 +1019,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
@@ -955,37 +1029,37 @@
       <c r="C18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>11</v>
+      <c r="D18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>59</v>
       </c>
@@ -1002,7 +1076,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
@@ -1019,7 +1093,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
@@ -1036,40 +1110,35 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="5"/>
+      <c r="C24" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="D24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>11</v>
@@ -1080,10 +1149,10 @@
     </row>
     <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>11</v>
@@ -1094,10 +1163,10 @@
     </row>
     <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>11</v>
@@ -1108,10 +1177,10 @@
     </row>
     <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>11</v>
@@ -1122,10 +1191,10 @@
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>11</v>
@@ -1136,10 +1205,10 @@
     </row>
     <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>11</v>
@@ -1150,109 +1219,104 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+    <row r="32" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="5"/>
+      <c r="C32" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F32" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+      <c r="B35" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>11</v>
@@ -1263,49 +1327,85 @@
     </row>
     <row r="38" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
+      <c r="B41" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D43" s="6"/>
@@ -1363,77 +1463,81 @@
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-    </row>
-    <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-    </row>
-    <row r="59" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-    </row>
-    <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-    </row>
-    <row r="62" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
+    </row>
+    <row r="58" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+    </row>
+    <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+    </row>
+    <row r="60" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+    </row>
+    <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
     </row>
     <row r="63" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+    </row>
+    <row r="64" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B23:E23"/>
     <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="G64:K64"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="G65:K65"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1453,82 +1557,82 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="42.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+    <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="A4" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="B5" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="B6" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" s="2" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
